--- a/biology/Botanique/Viroïde_de_la_maladie_des_tubercules_en_fuseau/Viroïde_de_la_maladie_des_tubercules_en_fuseau.xlsx
+++ b/biology/Botanique/Viroïde_de_la_maladie_des_tubercules_en_fuseau/Viroïde_de_la_maladie_des_tubercules_en_fuseau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Viro%C3%AFde_de_la_maladie_des_tubercules_en_fuseau</t>
+          <t>Viroïde_de_la_maladie_des_tubercules_en_fuseau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potato spindle tuber viroid
 Le viroïde de la maladie des tubercules en fuseau (PSTVd, Potato spindle tuber viroid) est une espèce de viroïdes du genre Pospiviroid (famille des Pospiviroidae) dont c'est l'espèce-type. C'est l'agent d'une maladie qui affecte diverses espèces de la famille des Solanaceae, principalement la pomme de terre, mais aussi la tomate et le tabac. C'est le premier viroïde qui a été identifié. Il est constitué d'une petite molécule circulaire d'ARN, étroitement apparentée à celle du viroïde du rabougrissement du chrysanthème (CSVd, Chrysanthemum stunt viroïd). Il est présent en Amérique et en Europe.
